--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3071958.936593081</v>
+        <v>3176138.571044152</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>109.6870817625081</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>383.9821873027535</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039582</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>73.20254494049502</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>82.93377084804354</v>
+        <v>19.84006383513684</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +955,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.278369283070965</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>147.7472246220538</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>151.9440011798712</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>109.3296738389817</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>56.97285057263363</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>7.57459922244825</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>25.7319404949734</v>
+        <v>171.697189621454</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,10 +2134,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>141.9101287729434</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>186.9166231085228</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>181.1911789297521</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>134.3852063573446</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>47.4973478028577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>23.41986852521132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3035,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>1.799772605716619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771212</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>28.75188085812118</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="I40" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>142.1343012721642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>95.12712756824217</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227934</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1712.341567565138</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1343.379050624727</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>985.1133520179762</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>599.3250994197319</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>188.3391946301244</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>177.3071485155249</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.94140762926</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518377</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395019</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571088</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591984</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1853.352583502134</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1564.249716627778</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153514</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009984</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2089.358425227295</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1720.395908286884</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1362.130209680133</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E5" t="n">
-        <v>976.3419570818889</v>
+        <v>954.607838657666</v>
       </c>
       <c r="F5" t="n">
-        <v>565.3560522922814</v>
+        <v>543.6219338680585</v>
       </c>
       <c r="G5" t="n">
-        <v>150.2836021372779</v>
+        <v>128.5494837130549</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2475.958265291417</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.0144869816389</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>370.0144869816389</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>370.0144869816389</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>222.1013933992458</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>222.1013933992458</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>222.1013933992458</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>75.88420661710359</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1496.53858584249</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1207.121415805529</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>979.1318649075118</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.0144869816389</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.41801219738</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1771.41801219738</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,10 +4819,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4847,7 +4849,7 @@
         <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261502</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>271.9735439263277</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981149</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X10" t="n">
-        <v>674.4145879000976</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y10" t="n">
-        <v>453.6220087565674</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5230,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5257,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="20">
@@ -5741,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5780,7 +5782,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>221.3431781811715</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811715</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2236.573815415549</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2016.97235043849</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1727.897123782688</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1473.212635576801</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6075,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>961.2628027535234</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,7 +6259,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6269,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669523</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3884.278803680254</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3594.861633643293</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.861633643293</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,13 +6478,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232836</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
         <v>779.6143379232836</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.044932795071</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897053</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535234</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6679,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>443.7574521812149</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>2757.723669558405</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>2757.723669558405</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7178,43 +7180,43 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,16 +7320,16 @@
         <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746423</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311171</v>
@@ -7433,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7594,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7721,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876693</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876693</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E46" t="n">
-        <v>580.8993044876693</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
   </sheetData>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>226.4057028288546</v>
+        <v>80.44045370237396</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202384618</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>39.11615722870121</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>99.26785128072137</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>44.51847645928501</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>204.6402955209703</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>79.42624789262538</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>263.1031298113797</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>40.6433062151476</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>117.682081788448</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>50.29392045468907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.9259388694754591</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26445,19 +26447,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808011.2607158698</v>
+        <v>-808011.2607158704</v>
       </c>
       <c r="C6" t="n">
-        <v>520733.4850117223</v>
+        <v>520733.485011722</v>
       </c>
       <c r="D6" t="n">
-        <v>520733.4850117221</v>
+        <v>520733.4850117222</v>
       </c>
       <c r="E6" t="n">
         <v>269161.194810712</v>
       </c>
       <c r="F6" t="n">
+        <v>594573.6566180672</v>
+      </c>
+      <c r="G6" t="n">
         <v>594573.6566180671</v>
       </c>
-      <c r="G6" t="n">
-        <v>594573.6566180673</v>
-      </c>
       <c r="H6" t="n">
+        <v>594573.6566180672</v>
+      </c>
+      <c r="I6" t="n">
+        <v>594573.6566180672</v>
+      </c>
+      <c r="J6" t="n">
+        <v>377042.4542207895</v>
+      </c>
+      <c r="K6" t="n">
         <v>594573.6566180671</v>
       </c>
-      <c r="I6" t="n">
-        <v>594573.6566180673</v>
-      </c>
-      <c r="J6" t="n">
-        <v>377042.4542207897</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>594573.6566180671</v>
+      </c>
+      <c r="M6" t="n">
+        <v>509518.6286825552</v>
+      </c>
+      <c r="N6" t="n">
         <v>594573.6566180672</v>
       </c>
-      <c r="L6" t="n">
-        <v>594573.6566180672</v>
-      </c>
-      <c r="M6" t="n">
-        <v>509518.6286825557</v>
-      </c>
-      <c r="N6" t="n">
-        <v>594573.6566180673</v>
-      </c>
       <c r="O6" t="n">
-        <v>594573.6566180673</v>
+        <v>594573.6566180671</v>
       </c>
       <c r="P6" t="n">
         <v>594573.6566180672</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>184.9206826248123</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2.25575135330007</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944229</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>146.3464043356742</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>211.6739935392769</v>
+        <v>274.7677005521836</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>87.07405112676713</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>104.3904187017742</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>202.7390404408117</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>276.9082648170719</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>110.2739705259942</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>244.5630441013797</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>568.8264345569168</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,16 +32551,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>253.8670488165984</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32795,7 +32797,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>414.644818552487</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -32810,7 +32812,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33029,7 +33031,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33196,7 +33198,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236508</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,7 +33280,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33731,31 +33733,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33898,7 +33900,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043726</v>
@@ -34442,22 +34444,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>395.1848490935914</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>430.2720547770426</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,16 +36199,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>127.0294221499317</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>272.5107846304687</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36691,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,7 +36928,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37630,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>253.0508151715731</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3176138.571044152</v>
+        <v>3172125.96103016</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>286.9936949083692</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>383.9821873027535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>73.20254494049502</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>138.1665993380046</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>19.84006383513684</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>147.7472246220538</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>337.6107722702502</v>
       </c>
       <c r="Y8" t="n">
-        <v>109.3296738389817</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V10" t="n">
-        <v>7.57459922244825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>75.08886905994723</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>171.697189621454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.1630968205466</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>141.9101287729434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>108.6115798077505</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>181.1911789297521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>100.9025715636458</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695591</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>134.3852063573446</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>137.9792024346629</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>124.8808320771212</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>4.019807611472472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>69.8286381302724</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>4.019807611472472</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5981994227934</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2249.271807195285</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1880.309290254874</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1522.043591648123</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>3119.628073993394</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2635.871647259407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
         <v>679.1346335501037</v>
@@ -4476,16 +4476,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1853.352583502134</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1564.249716627778</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V4" t="n">
-        <v>1309.565228421891</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W4" t="n">
-        <v>1309.565228421891</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X4" t="n">
-        <v>1081.575677523874</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>2098.941407629261</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264416</v>
+        <v>1729.978890688849</v>
       </c>
       <c r="D5" t="n">
-        <v>954.607838657666</v>
+        <v>1371.713192082098</v>
       </c>
       <c r="E5" t="n">
-        <v>954.607838657666</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>543.6219338680585</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>128.5494837130549</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1496.53858584249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.121415805529</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>979.1318649075118</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.1318649075118</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1829.812980520315</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>773.3749770559925</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>625.4618834735994</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>478.571935975689</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>311.375836690569</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>169.664005532767</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4098145049279</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>773.2931750925922</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>625.380081510199</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5782,16 +5782,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2236.573815415549</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2016.97235043849</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1727.897123782688</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V22" t="n">
-        <v>1473.212635576801</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W22" t="n">
-        <v>1183.79546553984</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>961.2628027535234</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.2628027535234</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,16 +6241,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424045</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300688</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>376.4492432300688</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>229.5592957321584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2307.590151828076</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.613315601761</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>888.6771326738542</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>738.5604932615184</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>590.6473996791253</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>443.7574521812149</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510509</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.054359575531</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432001</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
         <v>407.9027098310023</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>265.073174061852</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>97.87707477673194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7602,19 +7602,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958739</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>633.992644467967</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>483.8760050556313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>483.8760050556313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261136</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.176967258618319</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>80.44045370237396</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>38.13892827624207</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>6.257951202384618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>39.11615722870121</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>44.51847645928501</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>117.682081788449</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>31.13893193492422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>79.42624789262538</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>40.6433062151476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9259388694754591</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312477</v>
@@ -26322,40 +26322,40 @@
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26527,43 +26527,43 @@
         <v>520733.485011722</v>
       </c>
       <c r="D6" t="n">
-        <v>520733.4850117222</v>
+        <v>520733.4850117224</v>
       </c>
       <c r="E6" t="n">
-        <v>269161.194810712</v>
+        <v>268813.8155563548</v>
       </c>
       <c r="F6" t="n">
-        <v>594573.6566180672</v>
+        <v>594226.2773637102</v>
       </c>
       <c r="G6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="H6" t="n">
-        <v>594573.6566180672</v>
+        <v>594226.2773637102</v>
       </c>
       <c r="I6" t="n">
-        <v>594573.6566180672</v>
+        <v>594226.2773637101</v>
       </c>
       <c r="J6" t="n">
-        <v>377042.4542207895</v>
+        <v>376695.0749664326</v>
       </c>
       <c r="K6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="L6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637101</v>
       </c>
       <c r="M6" t="n">
-        <v>509518.6286825552</v>
+        <v>509171.2494281984</v>
       </c>
       <c r="N6" t="n">
-        <v>594573.6566180672</v>
+        <v>594226.2773637102</v>
       </c>
       <c r="O6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637102</v>
       </c>
       <c r="P6" t="n">
-        <v>594573.6566180672</v>
+        <v>594226.2773637103</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>94.93667516389257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.25575135330007</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>146.3464043356742</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>243.7637707342572</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>274.7677005521836</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>104.3904187017742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>32.12032840821882</v>
       </c>
       <c r="Y8" t="n">
-        <v>276.9082648170719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V10" t="n">
-        <v>244.5630441013797</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753698</v>
+        <v>620.1193660647502</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533515</v>
+        <v>477.9853321427319</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3172125.96103016</v>
+        <v>3173886.491332946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>286.9936949083692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>99.44060882562916</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>85.47654389282634</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>138.1665993380046</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>76.97130521239193</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>62.09581973348946</v>
+        <v>62.09581973348992</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>181.9348232923732</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>337.6107722702502</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.33640507852756</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.091419992848</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>113.3214422457876</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>75.08886905994723</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>108.6115798077505</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.9025715636458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>34.2234001515595</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>69.8286381302724</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2249.271807195285</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1880.309290254874</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1522.043591648123</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259407</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4391,70 +4391,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1840.954604762406</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.270116556519</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1296.852946519558</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.863395621541</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2098.941407629261</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1729.978890688849</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1371.713192082098</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>601.3302584915484</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>186.2578083365449</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4704,13 +4704,13 @@
         <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4722,22 +4722,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4764,7 +4764,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X7" t="n">
         <v>1409.887827153515</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>261.3167113269578</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>250.2846652123583</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612892</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>139.57919226908</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683283</v>
+        <v>915.1035305473707</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4916164683283</v>
+        <v>746.1673476194638</v>
       </c>
       <c r="D13" t="n">
-        <v>773.3749770559925</v>
+        <v>746.1673476194638</v>
       </c>
       <c r="E13" t="n">
-        <v>625.4618834735994</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>478.571935975689</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>311.375836690569</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>169.664005532767</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075816</v>
@@ -5530,22 +5530,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,10 +5843,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.7243904253733</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429802</v>
@@ -6141,58 +6141,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,22 +6241,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,55 +6600,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2376.429105670894</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2156.827640693835</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1867.752414038033</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1613.067925832146</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1323.650755795185</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.661204897168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,37 +7332,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>33.11252040078159</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.176967258618319</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.1976478713722</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
@@ -26355,7 +26355,7 @@
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26524,46 +26524,46 @@
         <v>-808011.2607158704</v>
       </c>
       <c r="C6" t="n">
-        <v>520733.485011722</v>
+        <v>520733.4850117223</v>
       </c>
       <c r="D6" t="n">
-        <v>520733.4850117224</v>
+        <v>520733.4850117225</v>
       </c>
       <c r="E6" t="n">
-        <v>268813.8155563548</v>
+        <v>269126.456885276</v>
       </c>
       <c r="F6" t="n">
-        <v>594226.2773637102</v>
+        <v>594538.9186926319</v>
       </c>
       <c r="G6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="H6" t="n">
-        <v>594226.2773637102</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="I6" t="n">
-        <v>594226.2773637101</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="J6" t="n">
-        <v>376695.0749664326</v>
+        <v>377007.7162953542</v>
       </c>
       <c r="K6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="L6" t="n">
-        <v>594226.2773637101</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="M6" t="n">
-        <v>509171.2494281984</v>
+        <v>509483.8907571197</v>
       </c>
       <c r="N6" t="n">
-        <v>594226.2773637102</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="O6" t="n">
-        <v>594226.2773637102</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="P6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94.93667516389257</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>228.3116496445057</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>200.7352943127866</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>243.7637707342572</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>217.6364591749285</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>83.32522828944178</v>
+        <v>83.32522828944133</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>112.6729410949473</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>32.12032840821882</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>24.01601533131053</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276489</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.926475458907758e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28617,10 +28617,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>556.532545233503</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502018</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427319</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>425.1908331501697</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587157</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
